--- a/tests/Templates/tLists6_count.xlsx
+++ b/tests/Templates/tLists6_count.xlsx
@@ -143,7 +143,6 @@
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -151,13 +150,11 @@
       <color indexed="16"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="9"/>
